--- a/natmiOut/OldD4/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H2">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I2">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J2">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167818886007403</v>
+        <v>0.1741896666666667</v>
       </c>
       <c r="N2">
-        <v>0.167818886007403</v>
+        <v>0.5225690000000001</v>
       </c>
       <c r="O2">
-        <v>0.2032476515335137</v>
+        <v>0.1217775023807563</v>
       </c>
       <c r="P2">
-        <v>0.2032476515335137</v>
+        <v>0.1456106214565214</v>
       </c>
       <c r="Q2">
-        <v>7.413752909688013</v>
+        <v>8.781047822429224</v>
       </c>
       <c r="R2">
-        <v>7.413752909688013</v>
+        <v>79.02943040186301</v>
       </c>
       <c r="S2">
-        <v>0.02919608440184927</v>
+        <v>0.01867850624663186</v>
       </c>
       <c r="T2">
-        <v>0.02919608440184927</v>
+        <v>0.02366657407332661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H3">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I3">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J3">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.657867830376285</v>
+        <v>0.04120966666666667</v>
       </c>
       <c r="N3">
-        <v>0.657867830376285</v>
+        <v>0.123629</v>
       </c>
       <c r="O3">
-        <v>0.7967523484664862</v>
+        <v>0.02881003435303379</v>
       </c>
       <c r="P3">
-        <v>0.7967523484664862</v>
+        <v>0.03444845660582293</v>
       </c>
       <c r="Q3">
-        <v>29.06269763599296</v>
+        <v>2.077414008942556</v>
       </c>
       <c r="R3">
-        <v>29.06269763599296</v>
+        <v>18.696726080483</v>
       </c>
       <c r="S3">
-        <v>0.1144517471059854</v>
+        <v>0.004418947639000496</v>
       </c>
       <c r="T3">
-        <v>0.1144517471059854</v>
+        <v>0.005599021155314025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.15239469437211</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H4">
-        <v>68.15239469437211</v>
+        <v>151.232527</v>
       </c>
       <c r="I4">
-        <v>0.2216067176079995</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J4">
-        <v>0.2216067176079995</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.167818886007403</v>
+        <v>0.01851933333333334</v>
       </c>
       <c r="N4">
-        <v>0.167818886007403</v>
+        <v>0.055558</v>
       </c>
       <c r="O4">
-        <v>0.2032476515335137</v>
+        <v>0.01294702609085127</v>
       </c>
       <c r="P4">
-        <v>0.2032476515335137</v>
+        <v>0.01548089325406102</v>
       </c>
       <c r="Q4">
-        <v>11.43725895634637</v>
+        <v>0.9335751927851113</v>
       </c>
       <c r="R4">
-        <v>11.43725895634637</v>
+        <v>8.402176735066</v>
       </c>
       <c r="S4">
-        <v>0.04504104491787647</v>
+        <v>0.001985843879086538</v>
       </c>
       <c r="T4">
-        <v>0.04504104491787647</v>
+        <v>0.002516160588105838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.15239469437211</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H5">
-        <v>68.15239469437211</v>
+        <v>151.232527</v>
       </c>
       <c r="I5">
-        <v>0.2216067176079995</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J5">
-        <v>0.2216067176079995</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.657867830376285</v>
+        <v>0.4941066666666667</v>
       </c>
       <c r="N5">
-        <v>0.657867830376285</v>
+        <v>1.48232</v>
       </c>
       <c r="O5">
-        <v>0.7967523484664862</v>
+        <v>0.3454342437631061</v>
       </c>
       <c r="P5">
-        <v>0.7967523484664862</v>
+        <v>0.4130393046610702</v>
       </c>
       <c r="Q5">
-        <v>44.83526803253482</v>
+        <v>24.90833326918223</v>
       </c>
       <c r="R5">
-        <v>44.83526803253482</v>
+        <v>224.17499942264</v>
       </c>
       <c r="S5">
-        <v>0.1765656726901231</v>
+        <v>0.05298347850620175</v>
       </c>
       <c r="T5">
-        <v>0.1765656726901231</v>
+        <v>0.06713263909717854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.3177413851197</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H6">
-        <v>60.3177413851197</v>
+        <v>151.232527</v>
       </c>
       <c r="I6">
-        <v>0.1961312840411223</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J6">
-        <v>0.1961312840411223</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.167818886007403</v>
+        <v>0.7023675</v>
       </c>
       <c r="N6">
-        <v>0.167818886007403</v>
+        <v>1.404735</v>
       </c>
       <c r="O6">
-        <v>0.2032476515335137</v>
+        <v>0.4910311934122526</v>
       </c>
       <c r="P6">
-        <v>0.2032476515335137</v>
+        <v>0.3914207240225244</v>
       </c>
       <c r="Q6">
-        <v>10.12245616573342</v>
+        <v>35.4069373025575</v>
       </c>
       <c r="R6">
-        <v>10.12245616573342</v>
+        <v>212.441623815345</v>
       </c>
       <c r="S6">
-        <v>0.03986322287361062</v>
+        <v>0.07531546495973472</v>
       </c>
       <c r="T6">
-        <v>0.03986322287361062</v>
+        <v>0.06361889995559332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.3177413851197</v>
+        <v>72.399292</v>
       </c>
       <c r="H7">
-        <v>60.3177413851197</v>
+        <v>217.197876</v>
       </c>
       <c r="I7">
-        <v>0.1961312840411223</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J7">
-        <v>0.1961312840411223</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.657867830376285</v>
+        <v>0.1741896666666667</v>
       </c>
       <c r="N7">
-        <v>0.657867830376285</v>
+        <v>0.5225690000000001</v>
       </c>
       <c r="O7">
-        <v>0.7967523484664862</v>
+        <v>0.1217775023807563</v>
       </c>
       <c r="P7">
-        <v>0.7967523484664862</v>
+        <v>0.1456106214565214</v>
       </c>
       <c r="Q7">
-        <v>39.68110165822656</v>
+        <v>12.61120854038267</v>
       </c>
       <c r="R7">
-        <v>39.68110165822656</v>
+        <v>113.500876863444</v>
       </c>
       <c r="S7">
-        <v>0.1562680611675116</v>
+        <v>0.02682578916122437</v>
       </c>
       <c r="T7">
-        <v>0.1562680611675116</v>
+        <v>0.03398957699703852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.89308056258101</v>
+        <v>72.399292</v>
       </c>
       <c r="H8">
-        <v>84.89308056258101</v>
+        <v>217.197876</v>
       </c>
       <c r="I8">
-        <v>0.276041319097751</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J8">
-        <v>0.276041319097751</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.167818886007403</v>
+        <v>0.04120966666666667</v>
       </c>
       <c r="N8">
-        <v>0.167818886007403</v>
+        <v>0.123629</v>
       </c>
       <c r="O8">
-        <v>0.2032476515335137</v>
+        <v>0.02881003435303379</v>
       </c>
       <c r="P8">
-        <v>0.2032476515335137</v>
+        <v>0.03444845660582293</v>
       </c>
       <c r="Q8">
-        <v>14.24666220974906</v>
+        <v>2.983550690222667</v>
       </c>
       <c r="R8">
-        <v>14.24666220974906</v>
+        <v>26.851956212004</v>
       </c>
       <c r="S8">
-        <v>0.05610474983283117</v>
+        <v>0.006346425999653649</v>
       </c>
       <c r="T8">
-        <v>0.05610474983283117</v>
+        <v>0.00804122979848953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.89308056258101</v>
+        <v>72.399292</v>
       </c>
       <c r="H9">
-        <v>84.89308056258101</v>
+        <v>217.197876</v>
       </c>
       <c r="I9">
-        <v>0.276041319097751</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J9">
-        <v>0.276041319097751</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.657867830376285</v>
+        <v>0.01851933333333334</v>
       </c>
       <c r="N9">
-        <v>0.657867830376285</v>
+        <v>0.055558</v>
       </c>
       <c r="O9">
-        <v>0.7967523484664862</v>
+        <v>0.01294702609085127</v>
       </c>
       <c r="P9">
-        <v>0.7967523484664862</v>
+        <v>0.01548089325406102</v>
       </c>
       <c r="Q9">
-        <v>55.84842672366434</v>
+        <v>1.340786621645333</v>
       </c>
       <c r="R9">
-        <v>55.84842672366434</v>
+        <v>12.067079594808</v>
       </c>
       <c r="S9">
-        <v>0.2199365692649199</v>
+        <v>0.002852039049808358</v>
       </c>
       <c r="T9">
-        <v>0.2199365692649199</v>
+        <v>0.003613671914716461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.9972609391931</v>
+        <v>72.399292</v>
       </c>
       <c r="H10">
-        <v>49.9972609391931</v>
+        <v>217.197876</v>
       </c>
       <c r="I10">
-        <v>0.1625728477452924</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J10">
-        <v>0.1625728477452924</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.167818886007403</v>
+        <v>0.4941066666666667</v>
       </c>
       <c r="N10">
-        <v>0.167818886007403</v>
+        <v>1.48232</v>
       </c>
       <c r="O10">
-        <v>0.2032476515335137</v>
+        <v>0.3454342437631061</v>
       </c>
       <c r="P10">
-        <v>0.2032476515335137</v>
+        <v>0.4130393046610702</v>
       </c>
       <c r="Q10">
-        <v>8.390484634236829</v>
+        <v>35.77297283914667</v>
       </c>
       <c r="R10">
-        <v>8.390484634236829</v>
+        <v>321.95675555232</v>
       </c>
       <c r="S10">
-        <v>0.03304254950734617</v>
+        <v>0.07609407329838952</v>
       </c>
       <c r="T10">
-        <v>0.03304254950734617</v>
+        <v>0.09641488449228741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.9972609391931</v>
+        <v>72.399292</v>
       </c>
       <c r="H11">
-        <v>49.9972609391931</v>
+        <v>217.197876</v>
       </c>
       <c r="I11">
-        <v>0.1625728477452924</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J11">
-        <v>0.1625728477452924</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.657867830376285</v>
+        <v>0.7023675</v>
       </c>
       <c r="N11">
-        <v>0.657867830376285</v>
+        <v>1.404735</v>
       </c>
       <c r="O11">
-        <v>0.7967523484664862</v>
+        <v>0.4910311934122526</v>
       </c>
       <c r="P11">
-        <v>0.7967523484664862</v>
+        <v>0.3914207240225244</v>
       </c>
       <c r="Q11">
-        <v>32.89158957882395</v>
+        <v>50.85090972381001</v>
       </c>
       <c r="R11">
-        <v>32.89158957882395</v>
+        <v>305.10545834286</v>
       </c>
       <c r="S11">
-        <v>0.1295302982379462</v>
+        <v>0.1081669356699092</v>
       </c>
       <c r="T11">
-        <v>0.1295302982379462</v>
+        <v>0.09136850529391316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>63.396933</v>
+      </c>
+      <c r="H12">
+        <v>190.190799</v>
+      </c>
+      <c r="I12">
+        <v>0.192894290605017</v>
+      </c>
+      <c r="J12">
+        <v>0.2044027024380561</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1741896666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.5225690000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1217775023807563</v>
+      </c>
+      <c r="P12">
+        <v>0.1456106214565214</v>
+      </c>
+      <c r="Q12">
+        <v>11.043090626959</v>
+      </c>
+      <c r="R12">
+        <v>99.38781564263101</v>
+      </c>
+      <c r="S12">
+        <v>0.02349018493338675</v>
+      </c>
+      <c r="T12">
+        <v>0.02976320452939778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>63.396933</v>
+      </c>
+      <c r="H13">
+        <v>190.190799</v>
+      </c>
+      <c r="I13">
+        <v>0.192894290605017</v>
+      </c>
+      <c r="J13">
+        <v>0.2044027024380561</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.04120966666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.123629</v>
+      </c>
+      <c r="O13">
+        <v>0.02881003435303379</v>
+      </c>
+      <c r="P13">
+        <v>0.03444845660582293</v>
+      </c>
+      <c r="Q13">
+        <v>2.612566476619</v>
+      </c>
+      <c r="R13">
+        <v>23.513098289571</v>
+      </c>
+      <c r="S13">
+        <v>0.005557291138834623</v>
+      </c>
+      <c r="T13">
+        <v>0.007041357625050313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>63.396933</v>
+      </c>
+      <c r="H14">
+        <v>190.190799</v>
+      </c>
+      <c r="I14">
+        <v>0.192894290605017</v>
+      </c>
+      <c r="J14">
+        <v>0.2044027024380561</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01851933333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.055558</v>
+      </c>
+      <c r="O14">
+        <v>0.01294702609085127</v>
+      </c>
+      <c r="P14">
+        <v>0.01548089325406102</v>
+      </c>
+      <c r="Q14">
+        <v>1.174068934538</v>
+      </c>
+      <c r="R14">
+        <v>10.566620410842</v>
+      </c>
+      <c r="S14">
+        <v>0.002497407413239402</v>
+      </c>
+      <c r="T14">
+        <v>0.003164336417285146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>63.396933</v>
+      </c>
+      <c r="H15">
+        <v>190.190799</v>
+      </c>
+      <c r="I15">
+        <v>0.192894290605017</v>
+      </c>
+      <c r="J15">
+        <v>0.2044027024380561</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.4941066666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.48232</v>
+      </c>
+      <c r="O15">
+        <v>0.3454342437631061</v>
+      </c>
+      <c r="P15">
+        <v>0.4130393046610702</v>
+      </c>
+      <c r="Q15">
+        <v>31.32484724152</v>
+      </c>
+      <c r="R15">
+        <v>281.92362517368</v>
+      </c>
+      <c r="S15">
+        <v>0.06663229340136488</v>
+      </c>
+      <c r="T15">
+        <v>0.08442635008585835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>63.396933</v>
+      </c>
+      <c r="H16">
+        <v>190.190799</v>
+      </c>
+      <c r="I16">
+        <v>0.192894290605017</v>
+      </c>
+      <c r="J16">
+        <v>0.2044027024380561</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7023675</v>
+      </c>
+      <c r="N16">
+        <v>1.404735</v>
+      </c>
+      <c r="O16">
+        <v>0.4910311934122526</v>
+      </c>
+      <c r="P16">
+        <v>0.3914207240225244</v>
+      </c>
+      <c r="Q16">
+        <v>44.5279453388775</v>
+      </c>
+      <c r="R16">
+        <v>267.167672033265</v>
+      </c>
+      <c r="S16">
+        <v>0.09471711371819137</v>
+      </c>
+      <c r="T16">
+        <v>0.08000745378046455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>86.94092833333333</v>
+      </c>
+      <c r="H17">
+        <v>260.822785</v>
+      </c>
+      <c r="I17">
+        <v>0.2645302840659494</v>
+      </c>
+      <c r="J17">
+        <v>0.2803126249625782</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1741896666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.5225690000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1217775023807563</v>
+      </c>
+      <c r="P17">
+        <v>0.1456106214565214</v>
+      </c>
+      <c r="Q17">
+        <v>15.14421132607389</v>
+      </c>
+      <c r="R17">
+        <v>136.297901934665</v>
+      </c>
+      <c r="S17">
+        <v>0.03221383729762328</v>
+      </c>
+      <c r="T17">
+        <v>0.04081649552290983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>86.94092833333333</v>
+      </c>
+      <c r="H18">
+        <v>260.822785</v>
+      </c>
+      <c r="I18">
+        <v>0.2645302840659494</v>
+      </c>
+      <c r="J18">
+        <v>0.2803126249625782</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.04120966666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.123629</v>
+      </c>
+      <c r="O18">
+        <v>0.02881003435303379</v>
+      </c>
+      <c r="P18">
+        <v>0.03444845660582293</v>
+      </c>
+      <c r="Q18">
+        <v>3.582806676307222</v>
+      </c>
+      <c r="R18">
+        <v>32.245260086765</v>
+      </c>
+      <c r="S18">
+        <v>0.007621126571357787</v>
+      </c>
+      <c r="T18">
+        <v>0.009656337297087692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>86.94092833333333</v>
+      </c>
+      <c r="H19">
+        <v>260.822785</v>
+      </c>
+      <c r="I19">
+        <v>0.2645302840659494</v>
+      </c>
+      <c r="J19">
+        <v>0.2803126249625782</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01851933333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.055558</v>
+      </c>
+      <c r="O19">
+        <v>0.01294702609085127</v>
+      </c>
+      <c r="P19">
+        <v>0.01548089325406102</v>
+      </c>
+      <c r="Q19">
+        <v>1.610088032114445</v>
+      </c>
+      <c r="R19">
+        <v>14.49079228903</v>
+      </c>
+      <c r="S19">
+        <v>0.003424880489622144</v>
+      </c>
+      <c r="T19">
+        <v>0.004339489824811315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>86.94092833333333</v>
+      </c>
+      <c r="H20">
+        <v>260.822785</v>
+      </c>
+      <c r="I20">
+        <v>0.2645302840659494</v>
+      </c>
+      <c r="J20">
+        <v>0.2803126249625782</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.4941066666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.48232</v>
+      </c>
+      <c r="O20">
+        <v>0.3454342437631061</v>
+      </c>
+      <c r="P20">
+        <v>0.4130393046610702</v>
+      </c>
+      <c r="Q20">
+        <v>42.95809229568889</v>
+      </c>
+      <c r="R20">
+        <v>386.6228306612001</v>
+      </c>
+      <c r="S20">
+        <v>0.09137781862876085</v>
+      </c>
+      <c r="T20">
+        <v>0.1157801317022626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>86.94092833333333</v>
+      </c>
+      <c r="H21">
+        <v>260.822785</v>
+      </c>
+      <c r="I21">
+        <v>0.2645302840659494</v>
+      </c>
+      <c r="J21">
+        <v>0.2803126249625782</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.7023675</v>
+      </c>
+      <c r="N21">
+        <v>1.404735</v>
+      </c>
+      <c r="O21">
+        <v>0.4910311934122526</v>
+      </c>
+      <c r="P21">
+        <v>0.3914207240225244</v>
+      </c>
+      <c r="Q21">
+        <v>61.0644824811625</v>
+      </c>
+      <c r="R21">
+        <v>366.386894886975</v>
+      </c>
+      <c r="S21">
+        <v>0.1298926210785853</v>
+      </c>
+      <c r="T21">
+        <v>0.1097201706155067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>55.513536</v>
+      </c>
+      <c r="H22">
+        <v>111.027072</v>
+      </c>
+      <c r="I22">
+        <v>0.1689079209193933</v>
+      </c>
+      <c r="J22">
+        <v>0.1193235092334022</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1741896666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.5225690000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1217775023807563</v>
+      </c>
+      <c r="P22">
+        <v>0.1456106214565214</v>
+      </c>
+      <c r="Q22">
+        <v>9.669884331328001</v>
+      </c>
+      <c r="R22">
+        <v>58.01930598796801</v>
+      </c>
+      <c r="S22">
+        <v>0.02056918474189001</v>
+      </c>
+      <c r="T22">
+        <v>0.01737477033384866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>55.513536</v>
+      </c>
+      <c r="H23">
+        <v>111.027072</v>
+      </c>
+      <c r="I23">
+        <v>0.1689079209193933</v>
+      </c>
+      <c r="J23">
+        <v>0.1193235092334022</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.04120966666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.123629</v>
+      </c>
+      <c r="O23">
+        <v>0.02881003435303379</v>
+      </c>
+      <c r="P23">
+        <v>0.03444845660582293</v>
+      </c>
+      <c r="Q23">
+        <v>2.287694314048</v>
+      </c>
+      <c r="R23">
+        <v>13.726165884288</v>
+      </c>
+      <c r="S23">
+        <v>0.004866243004187236</v>
+      </c>
+      <c r="T23">
+        <v>0.004110510729881366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>55.513536</v>
+      </c>
+      <c r="H24">
+        <v>111.027072</v>
+      </c>
+      <c r="I24">
+        <v>0.1689079209193933</v>
+      </c>
+      <c r="J24">
+        <v>0.1193235092334022</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01851933333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.055558</v>
+      </c>
+      <c r="O24">
+        <v>0.01294702609085127</v>
+      </c>
+      <c r="P24">
+        <v>0.01548089325406102</v>
+      </c>
+      <c r="Q24">
+        <v>1.028073677696</v>
+      </c>
+      <c r="R24">
+        <v>6.168442066176</v>
+      </c>
+      <c r="S24">
+        <v>0.002186855259094828</v>
+      </c>
+      <c r="T24">
+        <v>0.001847234509142264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>55.513536</v>
+      </c>
+      <c r="H25">
+        <v>111.027072</v>
+      </c>
+      <c r="I25">
+        <v>0.1689079209193933</v>
+      </c>
+      <c r="J25">
+        <v>0.1193235092334022</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.4941066666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.48232</v>
+      </c>
+      <c r="O25">
+        <v>0.3454342437631061</v>
+      </c>
+      <c r="P25">
+        <v>0.4130393046610702</v>
+      </c>
+      <c r="Q25">
+        <v>27.42960822784</v>
+      </c>
+      <c r="R25">
+        <v>164.57764936704</v>
+      </c>
+      <c r="S25">
+        <v>0.05834657992838915</v>
+      </c>
+      <c r="T25">
+        <v>0.04928529928348322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>55.513536</v>
+      </c>
+      <c r="H26">
+        <v>111.027072</v>
+      </c>
+      <c r="I26">
+        <v>0.1689079209193933</v>
+      </c>
+      <c r="J26">
+        <v>0.1193235092334022</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.7023675</v>
+      </c>
+      <c r="N26">
+        <v>1.404735</v>
+      </c>
+      <c r="O26">
+        <v>0.4910311934122526</v>
+      </c>
+      <c r="P26">
+        <v>0.3914207240225244</v>
+      </c>
+      <c r="Q26">
+        <v>38.99090349648</v>
+      </c>
+      <c r="R26">
+        <v>155.96361398592</v>
+      </c>
+      <c r="S26">
+        <v>0.08293905798583208</v>
+      </c>
+      <c r="T26">
+        <v>0.04670569437704666</v>
       </c>
     </row>
   </sheetData>
